--- a/CargoUIAutomation/src/test/resources/TestCasesMapping.xlsx
+++ b/CargoUIAutomation/src/test/resources/TestCasesMapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalFiles\p57448\CargoUIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3839DAE-AE9D-46AF-8674-D7E5F5606442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316F44A9-DB15-4D83-8012-EC5998500E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{1AB005B2-AFEC-3B46-93EF-50FA3BE3C5FF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="12" xr2:uid="{1AB005B2-AFEC-3B46-93EF-50FA3BE3C5FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="14" r:id="rId1"/>
@@ -5526,8 +5526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78402954-2B6D-C042-9263-9F192091C8D5}">
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -7534,7 +7534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAEE888-1773-9E47-9558-1F0A440779BF}">
   <dimension ref="A1:AL81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB66" zoomScale="133" workbookViewId="0">
+    <sheetView topLeftCell="AB66" zoomScale="133" workbookViewId="0">
       <selection activeCell="AL76" sqref="AL76"/>
     </sheetView>
   </sheetViews>
@@ -24705,6 +24705,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFBCF867C5410147BDDAF2BCA37BA4E7" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e24a40d5ebdbb3b92553f235188d50f6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2981db02-ca81-468a-9abd-70e82312b342" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="db49c26ce236f576151feb411775a695" ns2:_="">
     <xsd:import namespace="2981db02-ca81-468a-9abd-70e82312b342"/>
@@ -24836,12 +24842,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD641CF5-135D-42FC-A55D-82791A85B476}">
   <ds:schemaRefs>
@@ -24851,6 +24851,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B22D-1747-44FE-B15C-A00BE24DA1E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="2981db02-ca81-468a-9abd-70e82312b342"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED3BB4E-382D-479A-B77C-6CB5E1CFD30D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24866,20 +24882,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B22D-1747-44FE-B15C-A00BE24DA1E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="2981db02-ca81-468a-9abd-70e82312b342"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CargoUIAutomation/src/test/resources/TestCasesMapping.xlsx
+++ b/CargoUIAutomation/src/test/resources/TestCasesMapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalFiles\p57448\CargoUIAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\IdeaProjects\Cargo\CargoUIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316F44A9-DB15-4D83-8012-EC5998500E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6307CAA-CC44-4CE4-96E9-47B85EB2375C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="12" xr2:uid="{1AB005B2-AFEC-3B46-93EF-50FA3BE3C5FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1AB005B2-AFEC-3B46-93EF-50FA3BE3C5FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Configuration" sheetId="14" r:id="rId1"/>
@@ -56,14 +56,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3705" uniqueCount="302">
   <si>
     <t>LoginCredentials</t>
   </si>
@@ -1636,12 +1636,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.796875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="11"/>
+    <col min="4" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1716,14 +1716,14 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.58203125" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="11" customFormat="1">
@@ -1848,22 +1848,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7508C757-379C-BD45-982F-A9AA36397E0D}">
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView topLeftCell="I6" zoomScale="167" workbookViewId="0">
+    <sheetView topLeftCell="E12" zoomScale="167" workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="51.83203125" customWidth="1"/>
+    <col min="1" max="1" width="51.796875" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.08203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.08203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.08203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -4479,44 +4479,44 @@
   <sheetViews>
     <sheetView zoomScale="151" zoomScaleNormal="151" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="86" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.296875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="37.08203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.58203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.08203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.09765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.09765625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="28" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.08203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.08203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.08203125" customWidth="1"/>
-    <col min="31" max="32" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.08203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.296875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.09765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.09765625" customWidth="1"/>
+    <col min="31" max="32" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.09765625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.08203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="11" customFormat="1">
@@ -4632,7 +4632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="16.5">
+    <row r="2" spans="1:37" ht="16.8">
       <c r="A2" s="35" t="s">
         <v>243</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="16.5">
+    <row r="3" spans="1:37" ht="16.8">
       <c r="A3" s="35" t="s">
         <v>244</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="16.5">
+    <row r="4" spans="1:37" ht="16.8">
       <c r="A4" s="35" t="s">
         <v>245</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="16.5">
+    <row r="5" spans="1:37" ht="16.8">
       <c r="A5" s="35" t="s">
         <v>246</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5">
+    <row r="6" spans="1:37" ht="16.8">
       <c r="A6" s="35" t="s">
         <v>247</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="16.5">
+    <row r="7" spans="1:37" ht="16.8">
       <c r="A7" s="35" t="s">
         <v>248</v>
       </c>
@@ -5526,18 +5526,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78402954-2B6D-C042-9263-9F192091C8D5}">
   <dimension ref="A1:AL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="11" customFormat="1">
@@ -5656,7 +5656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="16.5">
+    <row r="2" spans="1:38" ht="16.8">
       <c r="A2" s="32" t="s">
         <v>293</v>
       </c>
@@ -5804,7 +5804,7 @@
       </c>
       <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:38" ht="16.5">
+    <row r="3" spans="1:38" ht="16.8">
       <c r="A3" s="32" t="s">
         <v>295</v>
       </c>
@@ -5952,7 +5952,7 @@
       </c>
       <c r="AL3" s="31"/>
     </row>
-    <row r="4" spans="1:38" ht="16.5">
+    <row r="4" spans="1:38" ht="16.8">
       <c r="A4" s="32" t="s">
         <v>296</v>
       </c>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="AL4" s="31"/>
     </row>
-    <row r="5" spans="1:38" ht="16.5">
+    <row r="5" spans="1:38" ht="16.8">
       <c r="A5" s="32" t="s">
         <v>297</v>
       </c>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="AL5" s="31"/>
     </row>
-    <row r="6" spans="1:38" ht="16.5">
+    <row r="6" spans="1:38" ht="16.8">
       <c r="A6" s="32" t="s">
         <v>298</v>
       </c>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="AL6" s="31"/>
     </row>
-    <row r="7" spans="1:38" ht="16.5">
+    <row r="7" spans="1:38" ht="16.8">
       <c r="A7" s="32" t="s">
         <v>299</v>
       </c>
@@ -6560,7 +6560,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:37" s="11" customFormat="1">
       <c r="A1" s="20" t="s">
@@ -6688,7 +6688,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:37" s="11" customFormat="1">
       <c r="A1" s="20" t="s">
@@ -6816,7 +6816,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:37" s="11" customFormat="1">
       <c r="A1" s="20" t="s">
@@ -6944,7 +6944,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:37" s="11" customFormat="1">
       <c r="A1" s="20" t="s">
@@ -7072,7 +7072,7 @@
       <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:37" s="11" customFormat="1">
       <c r="A1" s="20" t="s">
@@ -7197,18 +7197,18 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="178" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="47.58203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.58203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="10.83203125" style="11"/>
-    <col min="13" max="13" width="37.08203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="47.59765625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="10.796875" style="11"/>
+    <col min="13" max="13" width="37.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -7246,7 +7246,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="16">
+    <row r="2" spans="1:25">
       <c r="A2" s="11" t="s">
         <v>139</v>
       </c>
@@ -7280,7 +7280,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="16"/>
     </row>
-    <row r="3" spans="1:25" ht="16">
+    <row r="3" spans="1:25">
       <c r="A3" s="11" t="s">
         <v>138</v>
       </c>
@@ -7314,7 +7314,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="16"/>
     </row>
-    <row r="4" spans="1:25" ht="16">
+    <row r="4" spans="1:25">
       <c r="A4" s="11" t="s">
         <v>167</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16">
+    <row r="5" spans="1:25">
       <c r="A5" s="11" t="s">
         <v>168</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16">
+    <row r="6" spans="1:25">
       <c r="A6" s="11" t="s">
         <v>169</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="16">
+    <row r="7" spans="1:25">
       <c r="A7" s="11" t="s">
         <v>170</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16">
+    <row r="8" spans="1:25">
       <c r="A8" s="11" t="s">
         <v>200</v>
       </c>
@@ -7489,23 +7489,39 @@
       <c r="B16" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="11" t="s">
         <v>218</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="11" t="s">
         <v>199</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>111</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -7524,6 +7540,9 @@
     <hyperlink ref="C12" location="GBPerishable!A1" display="GBPerishable" xr:uid="{3D5A3C1F-8DA6-3048-98CD-7C6BF24109EF}"/>
     <hyperlink ref="C13" location="GBPharma!A1" display="GBPharma" xr:uid="{A36E1BE1-FCCF-4342-9171-7731BCC1D08F}"/>
     <hyperlink ref="C14" location="GBMedical!A1" display="GBMedical" xr:uid="{C9DDFD3D-821C-0B40-A968-940078BDAD57}"/>
+    <hyperlink ref="C16" location="GBParcel!A1" display="GBParcel" xr:uid="{ECE626B1-2C5F-40B2-8B98-6A697C949FEE}"/>
+    <hyperlink ref="C17" location="GBParcel!A1" display="GBParcel" xr:uid="{E80EAF35-6515-40DB-8BF6-0FDD54161116}"/>
+    <hyperlink ref="C18" location="GBParcel!A1" display="GBParcel" xr:uid="{F985A760-F158-4349-9838-04DC7964C128}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7538,15 +7557,15 @@
       <selection activeCell="AL76" sqref="AL76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="124.83203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.08203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="124.796875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.296875" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.796875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="18.796875" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="52" style="11" bestFit="1" customWidth="1"/>
@@ -7556,27 +7575,27 @@
     <col min="14" max="14" width="16" style="28" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.296875" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.5" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="37.08203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.58203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.08203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="37.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.09765625" style="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="28" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" style="11"/>
-    <col min="26" max="26" width="32.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.08203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.58203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="8.58203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.796875" style="11"/>
+    <col min="26" max="26" width="32.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="8.59765625" style="11" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.08203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.33203125" style="11" customWidth="1"/>
-    <col min="37" max="37" width="15.58203125" style="11" customWidth="1"/>
-    <col min="38" max="16384" width="10.83203125" style="11"/>
+    <col min="33" max="33" width="6.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.09765625" style="49" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.296875" style="11" customWidth="1"/>
+    <col min="37" max="37" width="15.59765625" style="11" customWidth="1"/>
+    <col min="38" max="16384" width="10.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -7695,7 +7714,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="16">
+    <row r="2" spans="1:38">
       <c r="A2" s="11" t="str">
         <f>_xlfn.CONCAT("createAndConfirmAdvanceBookingFor",SUBSTITUTE(B2," ","_"),"_",SUBSTITUTE(C2," ","_"),"_",SUBSTITUTE(J2," ","_"),"_",SUBSTITUTE(AJ2," ","_"))</f>
         <v>createAndConfirmAdvanceBookingForGeneral_Cargo_STANDARD_Loose_Domestic</v>
@@ -7807,7 +7826,7 @@
       </c>
       <c r="AK2" s="34"/>
     </row>
-    <row r="3" spans="1:38" ht="16">
+    <row r="3" spans="1:38">
       <c r="A3" s="11" t="str">
         <f t="shared" ref="A3:A66" si="0">_xlfn.CONCAT("createAndConfirmAdvanceBookingFor",SUBSTITUTE(B3," ","_"),"_",SUBSTITUTE(C3," ","_"),"_",SUBSTITUTE(J3," ","_"),"_",SUBSTITUTE(AJ3," ","_"))</f>
         <v>createAndConfirmAdvanceBookingForGeneral_Cargo_DSH_Loose_Domestic</v>
@@ -7919,7 +7938,7 @@
       </c>
       <c r="AK3" s="34"/>
     </row>
-    <row r="4" spans="1:38" ht="16">
+    <row r="4" spans="1:38">
       <c r="A4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForGeneral_Cargo_DMD_Loose_Domestic</v>
@@ -8031,7 +8050,7 @@
       </c>
       <c r="AK4" s="34"/>
     </row>
-    <row r="5" spans="1:38" ht="16">
+    <row r="5" spans="1:38">
       <c r="A5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForGeneral_Cargo_STANDARD_Loose_International</v>
@@ -8143,7 +8162,7 @@
       </c>
       <c r="AK5" s="34"/>
     </row>
-    <row r="6" spans="1:38" ht="16">
+    <row r="6" spans="1:38">
       <c r="A6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForGeneral_Cargo_DSH_Loose_International</v>
@@ -8255,7 +8274,7 @@
       </c>
       <c r="AK6" s="34"/>
     </row>
-    <row r="7" spans="1:38" ht="16">
+    <row r="7" spans="1:38">
       <c r="A7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForGeneral_Cargo_DMD_Loose_International</v>
@@ -8367,7 +8386,7 @@
       </c>
       <c r="AK7" s="34"/>
     </row>
-    <row r="8" spans="1:38" ht="16">
+    <row r="8" spans="1:38">
       <c r="A8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPerishable_FRESH_Fresh_1_-_Active_container_Domestic</v>
@@ -8479,7 +8498,7 @@
       </c>
       <c r="AK8" s="34"/>
     </row>
-    <row r="9" spans="1:38" ht="16">
+    <row r="9" spans="1:38">
       <c r="A9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPerishable_FRESH_Fresh_2_-_Temperature_controlled_between_+2°C_to_8°C_Domestic</v>
@@ -8591,7 +8610,7 @@
       </c>
       <c r="AK9" s="34"/>
     </row>
-    <row r="10" spans="1:38" ht="16">
+    <row r="10" spans="1:38">
       <c r="A10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPerishable_DASH_Fresh_3_-_Flowers_between_+2°C_to_25°C_Domestic</v>
@@ -8703,7 +8722,7 @@
       </c>
       <c r="AK10" s="34"/>
     </row>
-    <row r="11" spans="1:38" ht="16">
+    <row r="11" spans="1:38">
       <c r="A11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPerishable_DHV_Fresh_3_-_Foodstuffs_between_+2°C_to_25°C_Domestic</v>
@@ -8815,7 +8834,7 @@
       </c>
       <c r="AK11" s="34"/>
     </row>
-    <row r="12" spans="1:38" ht="16">
+    <row r="12" spans="1:38">
       <c r="A12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPerishable_DMD_Fresh_3_-_Seafood_between_+2°C_to_25°C_Domestic</v>
@@ -8927,7 +8946,7 @@
       </c>
       <c r="AK12" s="34"/>
     </row>
-    <row r="13" spans="1:38" ht="16">
+    <row r="13" spans="1:38">
       <c r="A13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPerishable_FRESH_Fresh_1_-_Active_container_International</v>
@@ -9039,7 +9058,7 @@
       </c>
       <c r="AK13" s="34"/>
     </row>
-    <row r="14" spans="1:38" ht="16">
+    <row r="14" spans="1:38">
       <c r="A14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPerishable_FRESH_Fresh_2_-_Temperature_controlled_between_+2°C_to_8°C_International</v>
@@ -9151,7 +9170,7 @@
       </c>
       <c r="AK14" s="34"/>
     </row>
-    <row r="15" spans="1:38" ht="16">
+    <row r="15" spans="1:38">
       <c r="A15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPerishable_DASH_Fresh_3_-_Flowers_between_+2°C_to_25°C_International</v>
@@ -9263,7 +9282,7 @@
       </c>
       <c r="AK15" s="34"/>
     </row>
-    <row r="16" spans="1:38" ht="16">
+    <row r="16" spans="1:38">
       <c r="A16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPerishable_DHV_Fresh_3_-_Foodstuffs_between_+2°C_to_25°C_International</v>
@@ -9375,7 +9394,7 @@
       </c>
       <c r="AK16" s="34"/>
     </row>
-    <row r="17" spans="1:37" ht="16">
+    <row r="17" spans="1:37">
       <c r="A17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPerishable_DMD_Fresh_3_-_Seafood_between_+2°C_to_25°C_International</v>
@@ -9487,7 +9506,7 @@
       </c>
       <c r="AK17" s="34"/>
     </row>
-    <row r="18" spans="1:37" ht="16">
+    <row r="18" spans="1:37">
       <c r="A18" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPharmaceuticals_PHARMA_Pharma_1_-_Active_Container_Domestic</v>
@@ -9599,7 +9618,7 @@
       </c>
       <c r="AK18" s="34"/>
     </row>
-    <row r="19" spans="1:37" ht="16">
+    <row r="19" spans="1:37">
       <c r="A19" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPharmaceuticals_PHARMA_Pharma_1_-_Passive_Container_Domestic</v>
@@ -9711,7 +9730,7 @@
       </c>
       <c r="AK19" s="34"/>
     </row>
-    <row r="20" spans="1:37" ht="16">
+    <row r="20" spans="1:37">
       <c r="A20" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPharmaceuticals_PHARMA_Pharma_2_-_Temperature_controlled_between_+2°C_to_+8°C_Domestic</v>
@@ -9823,7 +9842,7 @@
       </c>
       <c r="AK20" s="34"/>
     </row>
-    <row r="21" spans="1:37" ht="16">
+    <row r="21" spans="1:37">
       <c r="A21" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPharmaceuticals_PHARMA_Pharma_3_-_Temperature_controlled_between_+2°C_to_+25°C_Domestic</v>
@@ -9935,7 +9954,7 @@
       </c>
       <c r="AK21" s="34"/>
     </row>
-    <row r="22" spans="1:37" ht="16">
+    <row r="22" spans="1:37">
       <c r="A22" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPharmaceuticals_PHARMA_Pharma_4_-_Temperature_controlled_between_+15°C_to_+25°C_Domestic</v>
@@ -10047,7 +10066,7 @@
       </c>
       <c r="AK22" s="34"/>
     </row>
-    <row r="23" spans="1:37" ht="16">
+    <row r="23" spans="1:37">
       <c r="A23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPharmaceuticals_PHARMA_Pharma_1_-_Active_Container_International</v>
@@ -10159,7 +10178,7 @@
       </c>
       <c r="AK23" s="34"/>
     </row>
-    <row r="24" spans="1:37" ht="16">
+    <row r="24" spans="1:37">
       <c r="A24" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPharmaceuticals_PHARMA_Pharma_1_-_Passive_Container_International</v>
@@ -10271,7 +10290,7 @@
       </c>
       <c r="AK24" s="34"/>
     </row>
-    <row r="25" spans="1:37" ht="16">
+    <row r="25" spans="1:37">
       <c r="A25" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPharmaceuticals_PHARMA_Pharma_2_-_Temperature_controlled_between_+2°C_to_+8°C_International</v>
@@ -10383,7 +10402,7 @@
       </c>
       <c r="AK25" s="34"/>
     </row>
-    <row r="26" spans="1:37" ht="16">
+    <row r="26" spans="1:37">
       <c r="A26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPharmaceuticals_PHARMA_Pharma_3_-_Temperature_controlled_between_+2°C_to_+25°C_International</v>
@@ -10495,7 +10514,7 @@
       </c>
       <c r="AK26" s="34"/>
     </row>
-    <row r="27" spans="1:37" ht="16">
+    <row r="27" spans="1:37">
       <c r="A27" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForPharmaceuticals_PHARMA_Pharma_4_-_Temperature_controlled_between_+15°C_to_+25°C_International</v>
@@ -10607,7 +10626,7 @@
       </c>
       <c r="AK27" s="34"/>
     </row>
-    <row r="28" spans="1:37" ht="16">
+    <row r="28" spans="1:37">
       <c r="A28" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForMedical_DMD_Medical_shipment_–_Medevac_Domestic</v>
@@ -10719,7 +10738,7 @@
       </c>
       <c r="AK28" s="34"/>
     </row>
-    <row r="29" spans="1:37" ht="16">
+    <row r="29" spans="1:37">
       <c r="A29" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForMedical_DMD_Medical_shipment_for_transplant_–_Live_Human_Organ_Domestic</v>
@@ -10831,7 +10850,7 @@
       </c>
       <c r="AK29" s="34"/>
     </row>
-    <row r="30" spans="1:37" ht="16">
+    <row r="30" spans="1:37">
       <c r="A30" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForMedical_DMD_Life-saving_drugs_and_medication_or_cord-blood_Domestic</v>
@@ -10943,7 +10962,7 @@
       </c>
       <c r="AK30" s="34"/>
     </row>
-    <row r="31" spans="1:37" ht="16">
+    <row r="31" spans="1:37">
       <c r="A31" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForMedical_DMD_Medical_shipment_for_transplant_–_Other_Domestic</v>
@@ -11055,7 +11074,7 @@
       </c>
       <c r="AK31" s="34"/>
     </row>
-    <row r="32" spans="1:37" ht="16">
+    <row r="32" spans="1:37">
       <c r="A32" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForMedical_DMD_Medical_shipment_not_for_transplant_-_Diagnostic_Specimen_Domestic</v>
@@ -11167,7 +11186,7 @@
       </c>
       <c r="AK32" s="34"/>
     </row>
-    <row r="33" spans="1:37" ht="16">
+    <row r="33" spans="1:37">
       <c r="A33" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForMedical_DMD_Medical_shipment_not_for_transplant_-_Other_Domestic</v>
@@ -11279,7 +11298,7 @@
       </c>
       <c r="AK33" s="34"/>
     </row>
-    <row r="34" spans="1:37" ht="16">
+    <row r="34" spans="1:37">
       <c r="A34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForMedical_DMD_Medical_shipment_–_Medevac_International</v>
@@ -11391,7 +11410,7 @@
       </c>
       <c r="AK34" s="34"/>
     </row>
-    <row r="35" spans="1:37" ht="16">
+    <row r="35" spans="1:37">
       <c r="A35" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForMedical_DMD_Medical_shipment_for_transplant_–_Live_Human_Organ_International</v>
@@ -11503,7 +11522,7 @@
       </c>
       <c r="AK35" s="34"/>
     </row>
-    <row r="36" spans="1:37" ht="16">
+    <row r="36" spans="1:37">
       <c r="A36" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForMedical_DMD_Life-saving_drugs_and_medication_or_cord-blood_International</v>
@@ -11615,7 +11634,7 @@
       </c>
       <c r="AK36" s="34"/>
     </row>
-    <row r="37" spans="1:37" ht="16">
+    <row r="37" spans="1:37">
       <c r="A37" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForMedical_DMD_Medical_shipment_for_transplant_–_Other_International</v>
@@ -11727,7 +11746,7 @@
       </c>
       <c r="AK37" s="34"/>
     </row>
-    <row r="38" spans="1:37" ht="16">
+    <row r="38" spans="1:37">
       <c r="A38" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForMedical_DMD_Medical_shipment_not_for_transplant_-_Diagnostic_Specimen_International</v>
@@ -11839,7 +11858,7 @@
       </c>
       <c r="AK38" s="34"/>
     </row>
-    <row r="39" spans="1:37" ht="16">
+    <row r="39" spans="1:37">
       <c r="A39" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForMedical_DMD_Medical_shipment_not_for_transplant_-_Other_International</v>
@@ -11951,7 +11970,7 @@
       </c>
       <c r="AK39" s="34"/>
     </row>
-    <row r="40" spans="1:37" ht="16">
+    <row r="40" spans="1:37">
       <c r="A40" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForValuables_SAFE_Value_greater_than_25,000_USD_Domestic</v>
@@ -12063,7 +12082,7 @@
       </c>
       <c r="AK40" s="34"/>
     </row>
-    <row r="41" spans="1:37" ht="16">
+    <row r="41" spans="1:37">
       <c r="A41" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForValuables_SAFE_Value_less_than_25,000_USD_Domestic</v>
@@ -12175,7 +12194,7 @@
       </c>
       <c r="AK41" s="34"/>
     </row>
-    <row r="42" spans="1:37" ht="16">
+    <row r="42" spans="1:37">
       <c r="A42" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForValuables_SAFE_Value_greater_than_25,000_USD_International</v>
@@ -12287,7 +12306,7 @@
       </c>
       <c r="AK42" s="34"/>
     </row>
-    <row r="43" spans="1:37" ht="16">
+    <row r="43" spans="1:37">
       <c r="A43" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForValuables_SAFE_Value_less_than_25,000_USD_International</v>
@@ -12399,7 +12418,7 @@
       </c>
       <c r="AK43" s="34"/>
     </row>
-    <row r="44" spans="1:37" ht="16">
+    <row r="44" spans="1:37">
       <c r="A44" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForHuman_Remains_DELTA_CARES_Adult_Domestic</v>
@@ -12511,7 +12530,7 @@
       </c>
       <c r="AK44" s="34"/>
     </row>
-    <row r="45" spans="1:37" ht="16">
+    <row r="45" spans="1:37">
       <c r="A45" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForHuman_Remains_DELTA_CARES_Child/Infant_Domestic</v>
@@ -12623,7 +12642,7 @@
       </c>
       <c r="AK45" s="34"/>
     </row>
-    <row r="46" spans="1:37" ht="16">
+    <row r="46" spans="1:37">
       <c r="A46" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForHuman_Remains_DELTA_CARES_Cremated_Remains_Domestic</v>
@@ -12735,7 +12754,7 @@
       </c>
       <c r="AK46" s="34"/>
     </row>
-    <row r="47" spans="1:37" ht="16">
+    <row r="47" spans="1:37">
       <c r="A47" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForHuman_Remains_DELTA_CARES_Adult_International</v>
@@ -12847,7 +12866,7 @@
       </c>
       <c r="AK47" s="34"/>
     </row>
-    <row r="48" spans="1:37" ht="16">
+    <row r="48" spans="1:37">
       <c r="A48" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForHuman_Remains_DELTA_CARES_Child/Infant_International</v>
@@ -12959,7 +12978,7 @@
       </c>
       <c r="AK48" s="34"/>
     </row>
-    <row r="49" spans="1:37" ht="16">
+    <row r="49" spans="1:37">
       <c r="A49" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForHuman_Remains_DELTA_CARES_Cremated_Remains_International</v>
@@ -13071,7 +13090,7 @@
       </c>
       <c r="AK49" s="34"/>
     </row>
-    <row r="50" spans="1:37" ht="16">
+    <row r="50" spans="1:37">
       <c r="A50" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Bird_Domestic</v>
@@ -13183,7 +13202,7 @@
       </c>
       <c r="AK50" s="34"/>
     </row>
-    <row r="51" spans="1:37" ht="16">
+    <row r="51" spans="1:37">
       <c r="A51" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Day_Old_Chicks_Domestic</v>
@@ -13295,7 +13314,7 @@
       </c>
       <c r="AK51" s="34"/>
     </row>
-    <row r="52" spans="1:37" ht="16">
+    <row r="52" spans="1:37">
       <c r="A52" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Lab_Animals_-_e.g._Mice_Domestic</v>
@@ -13407,7 +13426,7 @@
       </c>
       <c r="AK52" s="34"/>
     </row>
-    <row r="53" spans="1:37" ht="16">
+    <row r="53" spans="1:37">
       <c r="A53" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Other_Warm_Blooded_Animal_Domestic</v>
@@ -13519,7 +13538,7 @@
       </c>
       <c r="AK53" s="34"/>
     </row>
-    <row r="54" spans="1:37" ht="16">
+    <row r="54" spans="1:37">
       <c r="A54" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Reptile/Amphibian/etc._Domestic</v>
@@ -13631,7 +13650,7 @@
       </c>
       <c r="AK54" s="34"/>
     </row>
-    <row r="55" spans="1:37" ht="16">
+    <row r="55" spans="1:37">
       <c r="A55" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Tropical_Fish_Domestic</v>
@@ -13743,7 +13762,7 @@
       </c>
       <c r="AK55" s="34"/>
     </row>
-    <row r="56" spans="1:37" ht="16">
+    <row r="56" spans="1:37">
       <c r="A56" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Hatching_Eggs_Domestic</v>
@@ -13855,7 +13874,7 @@
       </c>
       <c r="AK56" s="34"/>
     </row>
-    <row r="57" spans="1:37" ht="16">
+    <row r="57" spans="1:37">
       <c r="A57" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Bird_International</v>
@@ -13967,7 +13986,7 @@
       </c>
       <c r="AK57" s="34"/>
     </row>
-    <row r="58" spans="1:37" ht="16">
+    <row r="58" spans="1:37">
       <c r="A58" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Day_Old_Chicks_International</v>
@@ -14079,7 +14098,7 @@
       </c>
       <c r="AK58" s="34"/>
     </row>
-    <row r="59" spans="1:37" ht="16">
+    <row r="59" spans="1:37">
       <c r="A59" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Lab_Animals_-_e.g._Mice_International</v>
@@ -14191,7 +14210,7 @@
       </c>
       <c r="AK59" s="34"/>
     </row>
-    <row r="60" spans="1:37" ht="16">
+    <row r="60" spans="1:37">
       <c r="A60" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Other_Warm_Blooded_Animal_International</v>
@@ -14303,7 +14322,7 @@
       </c>
       <c r="AK60" s="34"/>
     </row>
-    <row r="61" spans="1:37" ht="16">
+    <row r="61" spans="1:37">
       <c r="A61" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Reptile/Amphibian/etc._International</v>
@@ -14415,7 +14434,7 @@
       </c>
       <c r="AK61" s="34"/>
     </row>
-    <row r="62" spans="1:37" ht="16">
+    <row r="62" spans="1:37">
       <c r="A62" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Tropical_Fish_International</v>
@@ -14527,7 +14546,7 @@
       </c>
       <c r="AK62" s="34"/>
     </row>
-    <row r="63" spans="1:37" ht="16">
+    <row r="63" spans="1:37">
       <c r="A63" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForLiveAnimals_LIVE_Hatching_Eggs_International</v>
@@ -14639,7 +14658,7 @@
       </c>
       <c r="AK63" s="34"/>
     </row>
-    <row r="64" spans="1:37" ht="16">
+    <row r="64" spans="1:37">
       <c r="A64" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForParcel16OZ_STANDARD_NA_Domestic</v>
@@ -14750,7 +14769,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="16">
+    <row r="65" spans="1:38">
       <c r="A65" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForParcel16OZ_DSH_NA_Domestic</v>
@@ -14861,7 +14880,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="16">
+    <row r="66" spans="1:38">
       <c r="A66" s="11" t="str">
         <f t="shared" si="0"/>
         <v>createAndConfirmAdvanceBookingForParcel16OZ_DMD_NA_Domestic</v>
@@ -14972,7 +14991,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="16">
+    <row r="67" spans="1:38">
       <c r="A67" s="11" t="str">
         <f t="shared" ref="A67:A72" si="1">_xlfn.CONCAT("createAndConfirmAdvanceBookingFor",SUBSTITUTE(B67," ","_"),"_",SUBSTITUTE(C67," ","_"),"_",SUBSTITUTE(J67," ","_"),"_",SUBSTITUTE(AJ67," ","_"))</f>
         <v>createAndConfirmAdvanceBookingForParcel16OZ_STANDARD_NA_International</v>
@@ -15083,7 +15102,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="16">
+    <row r="68" spans="1:38">
       <c r="A68" s="11" t="str">
         <f t="shared" si="1"/>
         <v>createAndConfirmAdvanceBookingForParcel16OZ_DSH_NA_International</v>
@@ -15194,7 +15213,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="16">
+    <row r="69" spans="1:38">
       <c r="A69" s="11" t="str">
         <f t="shared" si="1"/>
         <v>createAndConfirmAdvanceBookingForParcel16OZ_DMD_NA_International</v>
@@ -15305,7 +15324,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="16">
+    <row r="70" spans="1:38">
       <c r="A70" s="11" t="str">
         <f t="shared" si="1"/>
         <v>createAndConfirmAdvanceBookingForParcel_STANDARD_NA_Domestic</v>
@@ -15416,7 +15435,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="16">
+    <row r="71" spans="1:38">
       <c r="A71" s="11" t="str">
         <f t="shared" si="1"/>
         <v>createAndConfirmAdvanceBookingForParcel_DSH_NA_Domestic</v>
@@ -15527,7 +15546,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="16">
+    <row r="72" spans="1:38">
       <c r="A72" s="11" t="str">
         <f t="shared" si="1"/>
         <v>createAndConfirmAdvanceBookingForParcel_DMD_NA_Domestic</v>
@@ -15638,7 +15657,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:38" ht="16">
+    <row r="73" spans="1:38">
       <c r="A73" s="11" t="str">
         <f t="shared" ref="A73:A75" si="2">_xlfn.CONCAT("createAndConfirmAdvanceBookingFor",SUBSTITUTE(B73," ","_"),"_",SUBSTITUTE(C73," ","_"),"_",SUBSTITUTE(J73," ","_"),"_",SUBSTITUTE(AJ73," ","_"))</f>
         <v>createAndConfirmAdvanceBookingForParcel_STANDARD_NA_International</v>
@@ -15749,7 +15768,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="16">
+    <row r="74" spans="1:38">
       <c r="A74" s="11" t="str">
         <f t="shared" si="2"/>
         <v>createAndConfirmAdvanceBookingForParcel_DSH_NA_International</v>
@@ -15860,7 +15879,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="16">
+    <row r="75" spans="1:38">
       <c r="A75" s="11" t="str">
         <f t="shared" si="2"/>
         <v>createAndConfirmAdvanceBookingForParcel_DMD_NA_International</v>
@@ -15971,7 +15990,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="16">
+    <row r="76" spans="1:38">
       <c r="A76" s="11" t="str">
         <f t="shared" ref="A76:A81" si="3">_xlfn.CONCAT("createAndConfirmGuidedBookingFor",SUBSTITUTE(B76," ","_"),"_",SUBSTITUTE(C76," ","_"),"_",SUBSTITUTE(J76," ","_"),"_",SUBSTITUTE(AJ76," ","_"))</f>
         <v>createAndConfirmGuidedBookingForParcels_STANDARD_NA_Domestic</v>
@@ -16085,7 +16104,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="16">
+    <row r="77" spans="1:38">
       <c r="A77" s="11" t="str">
         <f t="shared" si="3"/>
         <v>createAndConfirmGuidedBookingForParcels_DSH_NA_Domestic</v>
@@ -16196,7 +16215,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="16">
+    <row r="78" spans="1:38">
       <c r="A78" s="11" t="str">
         <f t="shared" si="3"/>
         <v>createAndConfirmGuidedBookingForParcels_DMD_NA_Domestic</v>
@@ -16307,7 +16326,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="16">
+    <row r="79" spans="1:38">
       <c r="A79" s="11" t="str">
         <f t="shared" si="3"/>
         <v>createAndConfirmGuidedBookingForParcels_STANDARD_NA_International</v>
@@ -16418,7 +16437,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="80" spans="1:38" ht="16">
+    <row r="80" spans="1:38">
       <c r="A80" s="11" t="str">
         <f t="shared" si="3"/>
         <v>createAndConfirmGuidedBookingForParcels_DSH_NA_International</v>
@@ -16529,7 +16548,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="16">
+    <row r="81" spans="1:36">
       <c r="A81" s="11" t="str">
         <f t="shared" si="3"/>
         <v>createAndConfirmGuidedBookingForParcels_DMD_NA_International</v>
@@ -16730,39 +16749,39 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="89.5" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="13.08203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="39.08203125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" style="39" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="39" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.58203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.296875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="39.09765625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="13.296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.296875" style="39" customWidth="1"/>
+    <col min="11" max="11" width="15.296875" style="39" customWidth="1"/>
+    <col min="12" max="12" width="18.296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.59765625" style="39" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.08203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.58203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.08203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.09765625" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.59765625" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.09765625" style="39" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="28" style="39" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="32.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="37.08203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.58203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.58203125" style="39" customWidth="1"/>
-    <col min="25" max="25" width="27.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.09765625" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.59765625" style="39" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.59765625" style="39" customWidth="1"/>
+    <col min="25" max="25" width="27.296875" style="39" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13" style="39" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.08203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="29" max="35" width="10.83203125" style="39"/>
+    <col min="27" max="27" width="14.296875" style="39" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.09765625" style="39" bestFit="1" customWidth="1"/>
+    <col min="29" max="35" width="10.796875" style="39"/>
     <col min="36" max="36" width="14.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="10.83203125" style="39"/>
+    <col min="37" max="16384" width="10.796875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -16878,7 +16897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="16">
+    <row r="2" spans="1:37">
       <c r="A2" s="40" t="s">
         <v>224</v>
       </c>
@@ -17025,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="16">
+    <row r="3" spans="1:37">
       <c r="A3" s="40" t="s">
         <v>225</v>
       </c>
@@ -17172,7 +17191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="16">
+    <row r="4" spans="1:37">
       <c r="A4" s="40" t="s">
         <v>226</v>
       </c>
@@ -17320,7 +17339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="16">
+    <row r="5" spans="1:37">
       <c r="A5" s="40" t="s">
         <v>229</v>
       </c>
@@ -17468,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16">
+    <row r="6" spans="1:37">
       <c r="A6" s="40" t="s">
         <v>230</v>
       </c>
@@ -17616,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="16">
+    <row r="7" spans="1:37">
       <c r="A7" s="40" t="s">
         <v>231</v>
       </c>
@@ -17783,39 +17802,39 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="117" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="131.58203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="131.59765625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="23.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" style="11" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.796875" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.296875" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.58203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.296875" style="28" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.83203125" style="11"/>
-    <col min="16" max="16" width="21.58203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.08203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.796875" style="11"/>
+    <col min="16" max="16" width="21.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.09765625" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="28" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.83203125" style="11"/>
-    <col min="21" max="21" width="22.08203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.58203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="10.83203125" style="11"/>
-    <col min="26" max="26" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38.58203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.08203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.58203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="35" width="10.83203125" style="11"/>
-    <col min="36" max="36" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="10.83203125" style="11"/>
+    <col min="20" max="20" width="10.796875" style="11"/>
+    <col min="21" max="21" width="22.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10.796875" style="11"/>
+    <col min="26" max="26" width="14.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="10.796875" style="11"/>
+    <col min="36" max="36" width="14.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="10.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -17931,7 +17950,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="16.5">
+    <row r="2" spans="1:37" ht="16.8">
       <c r="A2" s="33" t="s">
         <v>249</v>
       </c>
@@ -18078,7 +18097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="16.5">
+    <row r="3" spans="1:37" ht="16.8">
       <c r="A3" s="33" t="s">
         <v>250</v>
       </c>
@@ -18225,7 +18244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="16.5">
+    <row r="4" spans="1:37" ht="16.8">
       <c r="A4" s="33" t="s">
         <v>251</v>
       </c>
@@ -18372,7 +18391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="16.5">
+    <row r="5" spans="1:37" ht="16.8">
       <c r="A5" s="33" t="s">
         <v>252</v>
       </c>
@@ -18519,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5">
+    <row r="6" spans="1:37" ht="16.8">
       <c r="A6" s="33" t="s">
         <v>253</v>
       </c>
@@ -18666,7 +18685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="16.5">
+    <row r="7" spans="1:37" ht="16.8">
       <c r="A7" s="33" t="s">
         <v>254</v>
       </c>
@@ -18813,7 +18832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="16.5">
+    <row r="8" spans="1:37" ht="16.8">
       <c r="A8" s="33" t="s">
         <v>255</v>
       </c>
@@ -18960,7 +18979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="16.5">
+    <row r="9" spans="1:37" ht="16.8">
       <c r="A9" s="33" t="s">
         <v>256</v>
       </c>
@@ -19107,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="16.5">
+    <row r="10" spans="1:37" ht="16.8">
       <c r="A10" s="33" t="s">
         <v>257</v>
       </c>
@@ -19254,7 +19273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="16.5">
+    <row r="11" spans="1:37" ht="16.8">
       <c r="A11" s="33" t="s">
         <v>258</v>
       </c>
@@ -19421,17 +19440,17 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="145.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="145.296875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.83203125" style="11"/>
-    <col min="11" max="11" width="49.08203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="11"/>
+    <col min="3" max="3" width="23.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.296875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10.796875" style="11"/>
+    <col min="11" max="11" width="49.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -19547,7 +19566,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="16.5">
+    <row r="2" spans="1:37" ht="16.8">
       <c r="A2" s="33" t="s">
         <v>259</v>
       </c>
@@ -19694,7 +19713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="16.5">
+    <row r="3" spans="1:37" ht="16.8">
       <c r="A3" s="33" t="s">
         <v>260</v>
       </c>
@@ -19841,7 +19860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="16.5">
+    <row r="4" spans="1:37" ht="16.8">
       <c r="A4" s="33" t="s">
         <v>261</v>
       </c>
@@ -19988,7 +20007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="16.5">
+    <row r="5" spans="1:37" ht="16.8">
       <c r="A5" s="33" t="s">
         <v>262</v>
       </c>
@@ -20135,7 +20154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5">
+    <row r="6" spans="1:37" ht="16.8">
       <c r="A6" s="33" t="s">
         <v>263</v>
       </c>
@@ -20282,7 +20301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="16.5">
+    <row r="7" spans="1:37" ht="16.8">
       <c r="A7" s="33" t="s">
         <v>264</v>
       </c>
@@ -20429,7 +20448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="16.5">
+    <row r="8" spans="1:37" ht="16.8">
       <c r="A8" s="33" t="s">
         <v>265</v>
       </c>
@@ -20576,7 +20595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="16.5">
+    <row r="9" spans="1:37" ht="16.8">
       <c r="A9" s="33" t="s">
         <v>266</v>
       </c>
@@ -20723,7 +20742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="16.5">
+    <row r="10" spans="1:37" ht="16.8">
       <c r="A10" s="33" t="s">
         <v>267</v>
       </c>
@@ -20870,7 +20889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="16.5">
+    <row r="11" spans="1:37" ht="16.8">
       <c r="A11" s="33" t="s">
         <v>268</v>
       </c>
@@ -21036,16 +21055,16 @@
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="131.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="11"/>
+    <col min="2" max="3" width="10.796875" style="11"/>
     <col min="4" max="4" width="13" style="11" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.83203125" style="11"/>
-    <col min="11" max="11" width="47.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="11"/>
+    <col min="5" max="5" width="23.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10.796875" style="11"/>
+    <col min="11" max="11" width="47.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -21161,7 +21180,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="16.5">
+    <row r="2" spans="1:37" ht="16.8">
       <c r="A2" s="32" t="s">
         <v>269</v>
       </c>
@@ -21308,7 +21327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="16.5">
+    <row r="3" spans="1:37" ht="16.8">
       <c r="A3" s="32" t="s">
         <v>270</v>
       </c>
@@ -21455,7 +21474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="16.5">
+    <row r="4" spans="1:37" ht="16.8">
       <c r="A4" s="32" t="s">
         <v>271</v>
       </c>
@@ -21602,7 +21621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="16.5">
+    <row r="5" spans="1:37" ht="16.8">
       <c r="A5" s="32" t="s">
         <v>272</v>
       </c>
@@ -21749,7 +21768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5">
+    <row r="6" spans="1:37" ht="16.8">
       <c r="A6" s="32" t="s">
         <v>273</v>
       </c>
@@ -21896,7 +21915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="16.5">
+    <row r="7" spans="1:37" ht="16.8">
       <c r="A7" s="32" t="s">
         <v>274</v>
       </c>
@@ -22043,7 +22062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="16.5">
+    <row r="8" spans="1:37" ht="16.8">
       <c r="A8" s="32" t="s">
         <v>275</v>
       </c>
@@ -22190,7 +22209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="16.5">
+    <row r="9" spans="1:37" ht="16.8">
       <c r="A9" s="32" t="s">
         <v>276</v>
       </c>
@@ -22337,7 +22356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="16.5">
+    <row r="10" spans="1:37" ht="16.8">
       <c r="A10" s="32" t="s">
         <v>277</v>
       </c>
@@ -22484,7 +22503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="16.5">
+    <row r="11" spans="1:37" ht="16.8">
       <c r="A11" s="32" t="s">
         <v>278</v>
       </c>
@@ -22631,7 +22650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="16.5">
+    <row r="12" spans="1:37" ht="16.8">
       <c r="A12" s="32" t="s">
         <v>279</v>
       </c>
@@ -22778,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="16.5">
+    <row r="13" spans="1:37" ht="16.8">
       <c r="A13" s="32" t="s">
         <v>280</v>
       </c>
@@ -22944,17 +22963,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="102.5" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.58203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.83203125" style="11"/>
+    <col min="3" max="3" width="23.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10.796875" style="11"/>
     <col min="11" max="11" width="24.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="11"/>
+    <col min="12" max="12" width="18.296875" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -23070,7 +23089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="16.5">
+    <row r="2" spans="1:37" ht="16.8">
       <c r="A2" s="33" t="s">
         <v>281</v>
       </c>
@@ -23217,7 +23236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="16.5">
+    <row r="3" spans="1:37" ht="16.8">
       <c r="A3" s="33" t="s">
         <v>282</v>
       </c>
@@ -23364,7 +23383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="16.5">
+    <row r="4" spans="1:37" ht="16.8">
       <c r="A4" s="33" t="s">
         <v>283</v>
       </c>
@@ -23511,7 +23530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="16.5">
+    <row r="5" spans="1:37" ht="16.8">
       <c r="A5" s="33" t="s">
         <v>284</v>
       </c>
@@ -23676,19 +23695,19 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="106.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="106.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.296875" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.83203125" style="11"/>
-    <col min="11" max="11" width="15.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10.796875" style="11"/>
+    <col min="11" max="11" width="15.296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.296875" style="28" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="11"/>
+    <col min="15" max="16384" width="10.796875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -23804,7 +23823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="16.5">
+    <row r="2" spans="1:37" ht="16.8">
       <c r="A2" s="32" t="s">
         <v>285</v>
       </c>
@@ -23951,7 +23970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="16.5">
+    <row r="3" spans="1:37" ht="16.8">
       <c r="A3" s="32" t="s">
         <v>286</v>
       </c>
@@ -24098,7 +24117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="16.5">
+    <row r="4" spans="1:37" ht="16.8">
       <c r="A4" s="32" t="s">
         <v>287</v>
       </c>
@@ -24245,7 +24264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="16.5">
+    <row r="5" spans="1:37" ht="16.8">
       <c r="A5" s="32" t="s">
         <v>288</v>
       </c>
@@ -24392,7 +24411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="16.5">
+    <row r="6" spans="1:37" ht="16.8">
       <c r="A6" s="32" t="s">
         <v>289</v>
       </c>
@@ -24539,7 +24558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="16.5">
+    <row r="7" spans="1:37" ht="16.8">
       <c r="A7" s="32" t="s">
         <v>290</v>
       </c>
@@ -24696,18 +24715,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24843,14 +24862,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD641CF5-135D-42FC-A55D-82791A85B476}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C30B22D-1747-44FE-B15C-A00BE24DA1E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -24862,6 +24873,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD641CF5-135D-42FC-A55D-82791A85B476}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
